--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H2">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N2">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O2">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P2">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q2">
-        <v>177.8093086041657</v>
+        <v>23.91167893169766</v>
       </c>
       <c r="R2">
-        <v>1600.283777437492</v>
+        <v>215.205110385279</v>
       </c>
       <c r="S2">
-        <v>0.4431069923642953</v>
+        <v>0.1178618472778244</v>
       </c>
       <c r="T2">
-        <v>0.4431069923642953</v>
+        <v>0.1178618472778245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H3">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N3">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O3">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P3">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q3">
-        <v>53.97853393081544</v>
+        <v>44.39524055928032</v>
       </c>
       <c r="R3">
-        <v>485.806805377339</v>
+        <v>399.5571650335229</v>
       </c>
       <c r="S3">
-        <v>0.134516387303231</v>
+        <v>0.2188263349305803</v>
       </c>
       <c r="T3">
-        <v>0.134516387303231</v>
+        <v>0.2188263349305804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H4">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N4">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O4">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P4">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q4">
-        <v>130.3454890558433</v>
+        <v>113.937140033318</v>
       </c>
       <c r="R4">
-        <v>1173.10940150259</v>
+        <v>1025.434260299862</v>
       </c>
       <c r="S4">
-        <v>0.3248255002912415</v>
+        <v>0.5616017945137913</v>
       </c>
       <c r="T4">
-        <v>0.3248255002912416</v>
+        <v>0.5616017945137914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.077019</v>
       </c>
       <c r="I5">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J5">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N5">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O5">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P5">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q5">
-        <v>11.09077639398711</v>
+        <v>1.813435854096555</v>
       </c>
       <c r="R5">
-        <v>99.81698754588399</v>
+        <v>16.320922686869</v>
       </c>
       <c r="S5">
-        <v>0.02763860120430961</v>
+        <v>0.008938514953056238</v>
       </c>
       <c r="T5">
-        <v>0.0276386012043096</v>
+        <v>0.008938514953056238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.077019</v>
       </c>
       <c r="I6">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J6">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N6">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O6">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P6">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q6">
-        <v>3.366887001594778</v>
+        <v>3.366887001594777</v>
       </c>
       <c r="R6">
         <v>30.301983014353</v>
       </c>
       <c r="S6">
-        <v>0.008390399718770125</v>
+        <v>0.01659555243766742</v>
       </c>
       <c r="T6">
-        <v>0.008390399718770123</v>
+        <v>0.01659555243766743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.077019</v>
       </c>
       <c r="I7">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J7">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N7">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O7">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P7">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q7">
-        <v>8.130241799103333</v>
+        <v>8.640869402764668</v>
       </c>
       <c r="R7">
-        <v>73.17217619192999</v>
+        <v>77.76782462488201</v>
       </c>
       <c r="S7">
-        <v>0.02026084584140132</v>
+        <v>0.04259127235713388</v>
       </c>
       <c r="T7">
-        <v>0.02026084584140132</v>
+        <v>0.04259127235713388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H8">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N8">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O8">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P8">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q8">
-        <v>8.129699793967109</v>
+        <v>0.8939943563893333</v>
       </c>
       <c r="R8">
-        <v>73.167298145704</v>
+        <v>8.045949207504</v>
       </c>
       <c r="S8">
-        <v>0.02025949514571703</v>
+        <v>0.004406542367893685</v>
       </c>
       <c r="T8">
-        <v>0.02025949514571703</v>
+        <v>0.004406542367893686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H9">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N9">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O9">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P9">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q9">
-        <v>2.467976955879778</v>
+        <v>1.659820484538666</v>
       </c>
       <c r="R9">
-        <v>22.211792602918</v>
+        <v>14.938384360848</v>
       </c>
       <c r="S9">
-        <v>0.006150284564565575</v>
+        <v>0.008181337204137999</v>
       </c>
       <c r="T9">
-        <v>0.006150284564565575</v>
+        <v>0.008181337204138002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H10">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N10">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O10">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P10">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q10">
-        <v>5.959585039953333</v>
+        <v>4.259807956768001</v>
       </c>
       <c r="R10">
-        <v>53.63626535957999</v>
+        <v>38.33827161091201</v>
       </c>
       <c r="S10">
-        <v>0.01485149356646845</v>
+        <v>0.02099680395791455</v>
       </c>
       <c r="T10">
-        <v>0.01485149356646845</v>
+        <v>0.02099680395791455</v>
       </c>
     </row>
   </sheetData>
